--- a/source/_data/joker.xlsx
+++ b/source/_data/joker.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>category</t>
   </si>
@@ -48,8 +51,7 @@
     <t>Question: How to generate a random string? Answer: Let novice quit VIM.</t>
   </si>
   <si>
-    <t>Random functions can help you achieve family harmony
-Talk(){:top word(1)=”en！”; word(2)=”Ok！”;word(3)=”and then？”;word(4)=”you're right”;i=random(4); say word(i) goto top;}</t>
+    <t>Random functions can help you achieve family harmony.Talk(){:top word(1)=”en！”; word(2)=”Ok！”;word(3)=”and then？”;word(4)=”you're right”;i=random(4); say word(i) goto top;}</t>
   </si>
   <si>
     <t>Programmer's view of love: love is a endless loop, once run it, will falls into; falling in love with a girl is a memory leak - you can never release it; when you really fall in love with a girl, it is a const limit, never change; girlfriend is a private variable, only my Class can be invoked; lover is a Pointer, when used, we must pay attention to it, otherwise it will bring huge great catastrophe.</t>
@@ -130,6 +132,22 @@
   <si>
     <t>i can't get your point
 try post</t>
+  </si>
+  <si>
+    <t>Database SQL walks into a NoSQL bar, and after a while, it walks out. Because I can't find a table.</t>
+  </si>
+  <si>
+    <t>Two programmers courted the same girl. girl said, "Come back to me after traveling around the world!"  A immediately packed his bags and set off. B circled MM and said, "Hello world!" the girl was moved Immediately. In fact, he's just used to making sure that Hello World runs well before doing anything new project.</t>
+  </si>
+  <si>
+    <t>Once upon a time, there was a program ape who got a magic lamp. The Genie promised to fulfill one of his wishes. Then he made a wish to the magic lamp that he would write a good project in his lifetime. Later... Later... He got eternal life.</t>
+  </si>
+  <si>
+    <t>The product manager was tied up, blindfolded and asked, "What do you want to do?" The product manager begged for mercy: "Don't beat, ask for money?" Another whip, "Is 100,000 enough?" Another whip, "One million?" Another whip. The Product Manager collapsed: "What the hell do you really want?" "What do i want?I was also want to know what the hell you really want when I write the code.</t>
+  </si>
+  <si>
+    <t>- What is the antonym of push
+- pop</t>
   </si>
   <si>
     <t>zh</t>
@@ -287,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -295,9 +313,9 @@
   <cols>
     <col min="1" max="1" width="10.833333333333334"/>
     <col min="2" max="2" width="10.833333333333334"/>
-    <col min="3" max="3" width="32.93333333333334"/>
-    <col min="4" max="4" width="21.558333333333334"/>
-    <col min="5" max="5" width="10.833333333333334"/>
+    <col min="3" max="3" width="10.833333333333334"/>
+    <col min="4" max="4" width="32.93333333333334"/>
+    <col min="5" max="5" width="21.558333333333334"/>
     <col min="6" max="6" width="10.833333333333334"/>
     <col min="7" max="7" width="10.833333333333334"/>
     <col min="8" max="8" width="10.833333333333334"/>
@@ -311,6 +329,7 @@
     <col min="16" max="16" width="10.833333333333334"/>
     <col min="17" max="17" width="10.833333333333334"/>
     <col min="18" max="18" width="10.833333333333334"/>
+    <col min="19" max="19" width="10.833333333333334"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -318,15 +337,17 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>3</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>35</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -340,245 +361,296 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" ht="144.0" customHeight="true">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="n" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="64.0" customHeight="true">
+      <c r="A3" t="n" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="48.0" customHeight="true">
+      <c r="A4" t="n" s="2">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="B4" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="112.0" customHeight="true">
+      <c r="A5" t="n" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="208.0" customHeight="true">
+      <c r="A6" t="n" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="224.0" customHeight="true">
+      <c r="A7" t="n" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="80.0" customHeight="true">
+      <c r="A8" t="n" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="192.0" customHeight="true">
+      <c r="A9" t="n" s="2">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="64.0" customHeight="true">
-      <c r="A3" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="3">
+      <c r="B9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="160.0" customHeight="true">
+      <c r="A10" t="n" s="2">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="48.0" customHeight="true">
-      <c r="A4" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s" s="1">
+      <c r="B10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="224.0" customHeight="true">
+      <c r="A11" t="n" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="112.0" customHeight="true">
-      <c r="A5" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="3">
+      <c r="D11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="272.0" customHeight="true">
+      <c r="A12" t="n" s="2">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="208.0" customHeight="true">
-      <c r="A6" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="3">
+      <c r="B12" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="48.0" customHeight="true">
+      <c r="A13" t="n" s="2">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" ht="224.0" customHeight="true">
-      <c r="A7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="3">
+      <c r="B13" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="96.0" customHeight="true">
+      <c r="A14" t="n" s="2">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="80.0" customHeight="true">
-      <c r="A8" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="3">
+      <c r="B14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="96.0" customHeight="true">
+      <c r="A15" t="n" s="2">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="192.0" customHeight="true">
-      <c r="A9" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s" s="3">
+      <c r="B15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="64.0" customHeight="true">
+      <c r="A16" t="n" s="2">
         <v>15</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="160.0" customHeight="true">
-      <c r="A10" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s" s="3">
+      <c r="B16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="64.0" customHeight="true">
+      <c r="A17" t="n" s="2">
         <v>16</v>
       </c>
-      <c r="D10" t="s" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="224.0" customHeight="true">
-      <c r="A11" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s" s="3">
+      <c r="B17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="48.0" customHeight="true">
+      <c r="A18" t="n" s="2">
         <v>17</v>
       </c>
-      <c r="D11" t="s" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="272.0" customHeight="true">
-      <c r="A12" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="48.0" customHeight="true">
-      <c r="A13" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="96.0" customHeight="true">
-      <c r="A14" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="96.0" customHeight="true">
-      <c r="A15" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" ht="64.0" customHeight="true">
-      <c r="A16" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="64.0" customHeight="true">
-      <c r="A17" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="48.0" customHeight="true">
-      <c r="A18" t="s" s="2">
-        <v>1</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s" s="4">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>4</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E18" t="s" s="4">
+        <v>52</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -592,21 +664,24 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" ht="112.0" customHeight="true">
-      <c r="A19" t="s" s="2">
-        <v>1</v>
+      <c r="A19" t="n" s="2">
+        <v>18</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s" s="4">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>4</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E19" t="s" s="4">
+        <v>53</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -620,770 +695,1008 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" ht="144.0" customHeight="true">
-      <c r="A20" t="s" s="2">
-        <v>1</v>
+      <c r="A20" t="n" s="2">
+        <v>19</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="144.0" customHeight="true">
+      <c r="A21" t="n" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="32.0" customHeight="true">
+      <c r="A22" t="n" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" ht="64.0" customHeight="true">
+      <c r="A23" t="n" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="176.0" customHeight="true">
+      <c r="A24" t="n" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" ht="128.0" customHeight="true">
+      <c r="A25" t="n" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="208.0" customHeight="true">
+      <c r="A26" t="n" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" ht="32.0" customHeight="true">
+      <c r="A27" t="n" s="2">
         <v>26</v>
       </c>
-      <c r="D20" t="s" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" ht="144.0" customHeight="true">
-      <c r="A21" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" ht="32.0" customHeight="true">
-      <c r="A22" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" ht="48.0" customHeight="true">
-      <c r="C23" s="3"/>
-      <c r="D23" t="s" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" ht="112.0" customHeight="true">
-      <c r="C24" s="3"/>
-      <c r="D24" t="s" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" ht="64.0" customHeight="true">
-      <c r="C25" s="3"/>
-      <c r="D25" t="s" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="112.0" customHeight="true">
-      <c r="C26" s="3"/>
-      <c r="D26" t="s" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" ht="32.0" customHeight="true">
-      <c r="C27" s="3"/>
+      <c r="B27" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>4</v>
+      </c>
       <c r="D27" t="s" s="3">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>61</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" s="3"/>
+      <c r="A28" s="1"/>
       <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29">
-      <c r="C29" s="3"/>
+      <c r="A29" s="1"/>
       <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30">
-      <c r="C30" s="3"/>
+      <c r="A30" s="1"/>
       <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31">
-      <c r="C31" s="3"/>
+      <c r="A31" s="1"/>
       <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32">
-      <c r="C32" s="3"/>
+      <c r="A32" s="1"/>
       <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33">
-      <c r="C33" s="3"/>
+      <c r="A33" s="1"/>
       <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34">
-      <c r="C34" s="3"/>
+      <c r="A34" s="1"/>
       <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35">
-      <c r="C35" s="3"/>
+      <c r="A35" s="1"/>
       <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36">
-      <c r="C36" s="3"/>
+      <c r="A36" s="1"/>
       <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37">
-      <c r="C37" s="3"/>
+      <c r="A37" s="1"/>
       <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38">
-      <c r="C38" s="3"/>
+      <c r="A38" s="1"/>
       <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39">
-      <c r="C39" s="3"/>
+      <c r="A39" s="1"/>
       <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40">
-      <c r="C40" s="3"/>
+      <c r="A40" s="1"/>
       <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41">
-      <c r="C41" s="3"/>
+      <c r="A41" s="1"/>
       <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42">
-      <c r="C42" s="3"/>
+      <c r="A42" s="1"/>
       <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43">
-      <c r="C43" s="3"/>
+      <c r="A43" s="1"/>
       <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44">
-      <c r="C44" s="3"/>
+      <c r="A44" s="1"/>
       <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45">
-      <c r="C45" s="3"/>
+      <c r="A45" s="1"/>
       <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46">
-      <c r="C46" s="3"/>
+      <c r="A46" s="1"/>
       <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47">
-      <c r="C47" s="3"/>
+      <c r="A47" s="1"/>
       <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48">
-      <c r="C48" s="3"/>
+      <c r="A48" s="1"/>
       <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49">
-      <c r="C49" s="3"/>
+      <c r="A49" s="1"/>
       <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50">
-      <c r="C50" s="3"/>
+      <c r="A50" s="1"/>
       <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51">
-      <c r="C51" s="3"/>
+      <c r="A51" s="1"/>
       <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52">
-      <c r="C52" s="3"/>
+      <c r="A52" s="1"/>
       <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53">
-      <c r="C53" s="3"/>
+      <c r="A53" s="1"/>
       <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54">
-      <c r="C54" s="3"/>
+      <c r="A54" s="1"/>
       <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55">
-      <c r="C55" s="3"/>
+      <c r="A55" s="1"/>
       <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56">
-      <c r="C56" s="3"/>
+      <c r="A56" s="1"/>
       <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57">
-      <c r="C57" s="3"/>
+      <c r="A57" s="1"/>
       <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58">
-      <c r="C58" s="3"/>
+      <c r="A58" s="1"/>
       <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59">
-      <c r="C59" s="3"/>
+      <c r="A59" s="1"/>
       <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60">
-      <c r="C60" s="3"/>
+      <c r="A60" s="1"/>
       <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61">
-      <c r="C61" s="3"/>
+      <c r="A61" s="1"/>
       <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62">
-      <c r="C62" s="3"/>
+      <c r="A62" s="1"/>
       <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63">
-      <c r="C63" s="3"/>
+      <c r="A63" s="1"/>
       <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64">
-      <c r="C64" s="3"/>
+      <c r="A64" s="1"/>
       <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65">
-      <c r="C65" s="3"/>
+      <c r="A65" s="1"/>
       <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66">
-      <c r="C66" s="3"/>
+      <c r="A66" s="1"/>
       <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67">
-      <c r="C67" s="3"/>
+      <c r="A67" s="1"/>
       <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68">
-      <c r="C68" s="3"/>
+      <c r="A68" s="1"/>
       <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69">
-      <c r="C69" s="3"/>
+      <c r="A69" s="1"/>
       <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70">
-      <c r="C70" s="3"/>
+      <c r="A70" s="1"/>
       <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71">
-      <c r="C71" s="3"/>
+      <c r="A71" s="1"/>
       <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72">
-      <c r="C72" s="3"/>
+      <c r="A72" s="1"/>
       <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73">
-      <c r="C73" s="3"/>
+      <c r="A73" s="1"/>
       <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74">
-      <c r="C74" s="3"/>
+      <c r="A74" s="1"/>
       <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75">
-      <c r="C75" s="3"/>
+      <c r="A75" s="1"/>
       <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76">
-      <c r="C76" s="3"/>
+      <c r="A76" s="1"/>
       <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77">
-      <c r="C77" s="3"/>
+      <c r="A77" s="1"/>
       <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78">
-      <c r="C78" s="3"/>
+      <c r="A78" s="1"/>
       <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79">
-      <c r="C79" s="3"/>
+      <c r="A79" s="1"/>
       <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80">
-      <c r="C80" s="3"/>
+      <c r="A80" s="1"/>
       <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81">
-      <c r="C81" s="3"/>
+      <c r="A81" s="1"/>
       <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82">
-      <c r="C82" s="3"/>
+      <c r="A82" s="1"/>
       <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83">
-      <c r="C83" s="3"/>
+      <c r="A83" s="1"/>
       <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84">
-      <c r="C84" s="3"/>
+      <c r="A84" s="1"/>
       <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85">
-      <c r="C85" s="3"/>
+      <c r="A85" s="1"/>
       <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86">
-      <c r="C86" s="3"/>
+      <c r="A86" s="1"/>
       <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87">
-      <c r="C87" s="3"/>
+      <c r="A87" s="1"/>
       <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88">
-      <c r="C88" s="3"/>
+      <c r="A88" s="1"/>
       <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89">
-      <c r="C89" s="3"/>
+      <c r="A89" s="1"/>
       <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90">
-      <c r="C90" s="3"/>
+      <c r="A90" s="1"/>
       <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91">
-      <c r="C91" s="3"/>
+      <c r="A91" s="1"/>
       <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92">
-      <c r="C92" s="3"/>
+      <c r="A92" s="1"/>
       <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93">
-      <c r="C93" s="3"/>
+      <c r="A93" s="1"/>
       <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94">
-      <c r="C94" s="3"/>
+      <c r="A94" s="1"/>
       <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95">
-      <c r="C95" s="3"/>
+      <c r="A95" s="1"/>
       <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96">
-      <c r="C96" s="3"/>
+      <c r="A96" s="1"/>
       <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97">
-      <c r="C97" s="3"/>
+      <c r="A97" s="1"/>
       <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98">
-      <c r="C98" s="3"/>
+      <c r="A98" s="1"/>
       <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99">
-      <c r="C99" s="3"/>
+      <c r="A99" s="1"/>
       <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100">
-      <c r="C100" s="3"/>
+      <c r="A100" s="1"/>
       <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101">
-      <c r="C101" s="3"/>
+      <c r="A101" s="1"/>
       <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102">
-      <c r="C102" s="3"/>
+      <c r="A102" s="1"/>
       <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
     </row>
     <row r="103">
-      <c r="C103" s="3"/>
+      <c r="A103" s="1"/>
       <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="104">
-      <c r="C104" s="3"/>
+      <c r="A104" s="1"/>
       <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
     </row>
     <row r="105">
-      <c r="C105" s="3"/>
+      <c r="A105" s="1"/>
       <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
     </row>
     <row r="106">
-      <c r="C106" s="3"/>
+      <c r="A106" s="1"/>
       <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107">
-      <c r="C107" s="3"/>
+      <c r="A107" s="1"/>
       <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
     </row>
     <row r="108">
-      <c r="C108" s="3"/>
+      <c r="A108" s="1"/>
       <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
     </row>
     <row r="109">
-      <c r="C109" s="3"/>
+      <c r="A109" s="1"/>
       <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
     </row>
     <row r="110">
-      <c r="C110" s="3"/>
+      <c r="A110" s="1"/>
       <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
     </row>
     <row r="111">
-      <c r="C111" s="3"/>
+      <c r="A111" s="1"/>
       <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
     </row>
     <row r="112">
-      <c r="C112" s="3"/>
+      <c r="A112" s="1"/>
       <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
     </row>
     <row r="113">
-      <c r="C113" s="3"/>
+      <c r="A113" s="1"/>
       <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
     </row>
     <row r="114">
-      <c r="C114" s="3"/>
+      <c r="A114" s="1"/>
       <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115">
-      <c r="C115" s="3"/>
+      <c r="A115" s="1"/>
       <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
     </row>
     <row r="116">
-      <c r="C116" s="3"/>
+      <c r="A116" s="1"/>
       <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117">
-      <c r="C117" s="3"/>
+      <c r="A117" s="1"/>
       <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="118">
-      <c r="C118" s="3"/>
+      <c r="A118" s="1"/>
       <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119">
-      <c r="C119" s="3"/>
+      <c r="A119" s="1"/>
       <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
     </row>
     <row r="120">
-      <c r="C120" s="3"/>
+      <c r="A120" s="1"/>
       <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121">
-      <c r="C121" s="3"/>
+      <c r="A121" s="1"/>
       <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122">
-      <c r="C122" s="3"/>
+      <c r="A122" s="1"/>
       <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
     </row>
     <row r="123">
-      <c r="C123" s="3"/>
+      <c r="A123" s="1"/>
       <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124">
-      <c r="C124" s="3"/>
+      <c r="A124" s="1"/>
       <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125">
-      <c r="C125" s="3"/>
+      <c r="A125" s="1"/>
       <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
     </row>
     <row r="126">
-      <c r="C126" s="3"/>
+      <c r="A126" s="1"/>
       <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
     </row>
     <row r="127">
-      <c r="C127" s="3"/>
+      <c r="A127" s="1"/>
       <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
     </row>
     <row r="128">
-      <c r="C128" s="3"/>
+      <c r="A128" s="1"/>
       <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
     </row>
     <row r="129">
-      <c r="C129" s="3"/>
+      <c r="A129" s="1"/>
       <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
     </row>
     <row r="130">
-      <c r="C130" s="3"/>
+      <c r="A130" s="1"/>
       <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
     </row>
     <row r="131">
-      <c r="C131" s="3"/>
+      <c r="A131" s="1"/>
       <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
     </row>
     <row r="132">
-      <c r="C132" s="3"/>
+      <c r="A132" s="1"/>
       <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
     </row>
     <row r="133">
-      <c r="C133" s="3"/>
+      <c r="A133" s="1"/>
       <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
     </row>
     <row r="134">
-      <c r="C134" s="3"/>
+      <c r="A134" s="1"/>
       <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
     </row>
     <row r="135">
-      <c r="C135" s="3"/>
+      <c r="A135" s="1"/>
       <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
     </row>
     <row r="136">
-      <c r="C136" s="3"/>
+      <c r="A136" s="1"/>
       <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
     </row>
     <row r="137">
-      <c r="C137" s="3"/>
+      <c r="A137" s="1"/>
       <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
     </row>
     <row r="138">
-      <c r="C138" s="3"/>
+      <c r="A138" s="1"/>
       <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
     </row>
     <row r="139">
-      <c r="C139" s="3"/>
+      <c r="A139" s="1"/>
       <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140">
-      <c r="C140" s="3"/>
+      <c r="A140" s="1"/>
       <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
     </row>
     <row r="141">
-      <c r="C141" s="3"/>
+      <c r="A141" s="1"/>
       <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
     </row>
     <row r="142">
-      <c r="C142" s="3"/>
+      <c r="A142" s="1"/>
       <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
     </row>
     <row r="143">
-      <c r="C143" s="3"/>
+      <c r="A143" s="1"/>
       <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
     </row>
     <row r="144">
-      <c r="C144" s="3"/>
+      <c r="A144" s="1"/>
       <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
     </row>
     <row r="145">
-      <c r="C145" s="3"/>
+      <c r="A145" s="1"/>
       <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
     </row>
     <row r="146">
-      <c r="C146" s="3"/>
+      <c r="A146" s="1"/>
       <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
     </row>
     <row r="147">
-      <c r="C147" s="3"/>
+      <c r="A147" s="1"/>
       <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
     </row>
     <row r="148">
-      <c r="C148" s="3"/>
+      <c r="A148" s="1"/>
       <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
     </row>
     <row r="149">
-      <c r="C149" s="3"/>
+      <c r="A149" s="1"/>
       <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
     </row>
     <row r="150">
-      <c r="C150" s="3"/>
+      <c r="A150" s="1"/>
       <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
     </row>
     <row r="151">
-      <c r="C151" s="3"/>
+      <c r="A151" s="1"/>
       <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
     </row>
     <row r="152">
-      <c r="C152" s="3"/>
+      <c r="A152" s="1"/>
       <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
     </row>
     <row r="153">
-      <c r="C153" s="3"/>
+      <c r="A153" s="1"/>
       <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
     </row>
     <row r="154">
-      <c r="C154" s="3"/>
+      <c r="A154" s="1"/>
       <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
     </row>
     <row r="155">
-      <c r="C155" s="3"/>
+      <c r="A155" s="1"/>
       <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
     </row>
     <row r="156">
-      <c r="C156" s="3"/>
+      <c r="A156" s="1"/>
       <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
     </row>
     <row r="157">
-      <c r="C157" s="3"/>
+      <c r="A157" s="1"/>
       <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
     </row>
     <row r="158">
-      <c r="C158" s="3"/>
+      <c r="A158" s="1"/>
       <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159">
-      <c r="C159" s="3"/>
+      <c r="A159" s="1"/>
       <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
     </row>
     <row r="160">
-      <c r="C160" s="3"/>
+      <c r="A160" s="1"/>
       <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
     </row>
     <row r="161">
-      <c r="C161" s="3"/>
+      <c r="A161" s="1"/>
       <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
     </row>
     <row r="162">
-      <c r="C162" s="3"/>
+      <c r="A162" s="1"/>
       <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
     </row>
     <row r="163">
-      <c r="C163" s="3"/>
+      <c r="A163" s="1"/>
       <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
     </row>
     <row r="164">
-      <c r="C164" s="3"/>
+      <c r="A164" s="1"/>
       <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="165">
-      <c r="C165" s="3"/>
+      <c r="A165" s="1"/>
       <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
     </row>
     <row r="166">
-      <c r="C166" s="3"/>
+      <c r="A166" s="1"/>
       <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
     </row>
     <row r="167">
-      <c r="C167" s="3"/>
+      <c r="A167" s="1"/>
       <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
     </row>
     <row r="168">
-      <c r="C168" s="3"/>
+      <c r="A168" s="1"/>
       <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169">
-      <c r="C169" s="3"/>
+      <c r="A169" s="1"/>
       <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
     </row>
     <row r="170">
-      <c r="C170" s="3"/>
+      <c r="A170" s="1"/>
       <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
     </row>
     <row r="171">
-      <c r="C171" s="3"/>
+      <c r="A171" s="1"/>
       <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
     </row>
     <row r="172">
-      <c r="C172" s="3"/>
+      <c r="A172" s="1"/>
       <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
     </row>
     <row r="173">
-      <c r="C173" s="3"/>
+      <c r="A173" s="1"/>
       <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
     </row>
     <row r="174">
-      <c r="C174" s="3"/>
+      <c r="A174" s="1"/>
       <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
     </row>
     <row r="175">
-      <c r="C175" s="3"/>
+      <c r="A175" s="1"/>
       <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
     </row>
     <row r="176">
-      <c r="C176" s="3"/>
+      <c r="A176" s="1"/>
       <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177">
-      <c r="C177" s="3"/>
+      <c r="A177" s="1"/>
       <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
     </row>
     <row r="178">
-      <c r="C178" s="3"/>
+      <c r="A178" s="1"/>
       <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
     </row>
     <row r="179">
-      <c r="C179" s="3"/>
+      <c r="A179" s="1"/>
       <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
     </row>
     <row r="180">
-      <c r="C180" s="3"/>
+      <c r="A180" s="1"/>
       <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181">
-      <c r="C181" s="3"/>
+      <c r="A181" s="1"/>
       <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182">
-      <c r="C182" s="3"/>
+      <c r="A182" s="1"/>
       <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183">
-      <c r="C183" s="3"/>
+      <c r="A183" s="1"/>
       <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
     </row>
     <row r="184">
-      <c r="C184" s="3"/>
+      <c r="A184" s="1"/>
       <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
     </row>
     <row r="185">
-      <c r="C185" s="3"/>
+      <c r="A185" s="1"/>
       <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
     </row>
     <row r="186">
-      <c r="C186" s="3"/>
+      <c r="A186" s="1"/>
       <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187">
-      <c r="C187" s="3"/>
+      <c r="A187" s="1"/>
       <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
     </row>
     <row r="188">
-      <c r="C188" s="3"/>
+      <c r="A188" s="1"/>
       <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189">
-      <c r="C189" s="3"/>
+      <c r="A189" s="1"/>
       <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
     </row>
     <row r="190">
-      <c r="C190" s="3"/>
+      <c r="A190" s="1"/>
       <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
     </row>
     <row r="191">
-      <c r="C191" s="3"/>
+      <c r="A191" s="1"/>
       <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
     </row>
     <row r="192">
-      <c r="C192" s="3"/>
+      <c r="A192" s="1"/>
       <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
     </row>
     <row r="193">
-      <c r="C193" s="3"/>
+      <c r="A193" s="1"/>
       <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
     </row>
     <row r="194">
-      <c r="C194" s="3"/>
+      <c r="A194" s="1"/>
       <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195">
-      <c r="C195" s="3"/>
+      <c r="A195" s="1"/>
       <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196">
-      <c r="C196" s="3"/>
+      <c r="A196" s="1"/>
       <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
     </row>
     <row r="197">
-      <c r="C197" s="3"/>
+      <c r="A197" s="1"/>
       <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198">
-      <c r="C198" s="3"/>
+      <c r="A198" s="1"/>
       <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
     </row>
     <row r="199">
-      <c r="C199" s="3"/>
+      <c r="A199" s="1"/>
       <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
     </row>
     <row r="200">
-      <c r="C200" s="3"/>
+      <c r="A200" s="1"/>
       <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
